--- a/DOC/結合テスト/勤怠情報結合テスト.xlsx
+++ b/DOC/結合テスト/勤怠情報結合テスト.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t>提案</t>
   </si>
@@ -149,7 +149,29 @@
     <t>稼働月未入力チェック</t>
   </si>
   <si>
-    <t>稼働月が空（null）を入力して、提出ボタンを押す。</t>
+    <r>
+      <t>稼働月が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）のままで、提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>”このフィールドに入力してください。”メッセージを表示。</t>
@@ -164,21 +186,52 @@
     <t>障害対応表</t>
   </si>
   <si>
-    <t>稼働月既に登録済み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-既に登録済みの稼働月がもう一回入力して、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">”稼働月の勤怠は既に提出済み”メッセージを表示。
-</t>
-  </si>
-  <si>
     <t>稼働開始日未入力チェック</t>
   </si>
   <si>
-    <t>稼働開始日が空（null）を入力して、提出ボタンを押す。</t>
+    <r>
+      <t>稼働月が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；稼働開始日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）のままで、提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">”このフィールドに入力してください。”メッセージを表示。
@@ -188,127 +241,1017 @@
     <t>稼働終了日未入力チェック</t>
   </si>
   <si>
-    <t>稼働終了日が空（null）を入力して、提出ボタンを押す。</t>
+    <r>
+      <t>稼働月と稼働開始日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；稼働終了日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）のままで、提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>稼働時間未入力チェック</t>
   </si>
   <si>
-    <t>稼働時間が空（null）を入力して、提出ボタンを押す。</t>
+    <r>
+      <t>稼働月、稼働開始日と稼働終了日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>定期券開始日未入力チェック</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；定期券開始日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>起点駅未入力チェック</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；起点駅が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>終点駅未入力チェック</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日と起点駅が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；終点駅が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>交通機関未入力チェック</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定期券開始日、起点駅と終点駅が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交通機関が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>定期券金額未入力チェック</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日、起点駅、終点駅と交通機関が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；定期券金額が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（null）をのままで、提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>ファイル選択チェック</t>
   </si>
   <si>
-    <t>ファイル未選択</t>
-  </si>
-  <si>
-    <t>ファイル未選択状態、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>稼働月の勤怠を提出できます。ファイル未提出。</t>
-  </si>
-  <si>
     <t>ファイル選択</t>
   </si>
   <si>
-    <t>ファイルを作成、ファイル選択、提出ボタンを押す。</t>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ファイルを作成、ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>ファイルと稼働月の勤怠を提出できます。</t>
   </si>
   <si>
-    <t>定期券変更チェック</t>
-  </si>
-  <si>
-    <t>定期券変更あり</t>
-  </si>
-  <si>
-    <t>定期券変更ありを選択。</t>
-  </si>
-  <si>
-    <t>定期券開始日などを入力できます。</t>
-  </si>
-  <si>
-    <t>定期券変更なし</t>
-  </si>
-  <si>
-    <t>定期券変更ありを未選択。</t>
-  </si>
-  <si>
-    <t>定期券開始日などを入力できません。</t>
-  </si>
-  <si>
-    <t>定期券変更あり、定期券開始日など入力チェックエラー</t>
-  </si>
-  <si>
-    <t>定期券変更あり、定期券開始日など未入力チェック</t>
-  </si>
-  <si>
-    <t>定期券変更ありを選択、定期券開始日など未入力して、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>定期券変更後提出</t>
-  </si>
-  <si>
-    <t>定期券変更ありを選択、定期券開始日など入力して、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>定期券変更できます。</t>
-  </si>
-  <si>
-    <t>定期券末変更、前月の定期券情報を本月分の定期券情報として提出。</t>
-  </si>
-  <si>
-    <t>定期券変更なしを選択、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>前月の定期券情報を本月分の定期券情報として提出。</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更あり、提出チェック</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更あり</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更あり、定期券開始日など入力して、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>ファイルと稼働月の勤怠と定期券変更を提出できます。</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更なし、提出チェック</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更なし</t>
-  </si>
-  <si>
-    <t>ファイル選択して、定期券変更なし、前月の定期券情報を本月分の定期券情報として、提出ボタンを押す。</t>
-  </si>
-  <si>
-    <t>ファイルと稼働月の勤怠を提出できます。前月の定期券情報を本月分の定期券情報として提出。</t>
-  </si>
-  <si>
-    <t>ファイル未選択して、定期券変更あり、提出チェック</t>
-  </si>
-  <si>
-    <t>ファイル未選択して、定期券変更あり</t>
-  </si>
-  <si>
-    <t>ファイル未選択して、定期券変更あり、定期券開始日など入力して、提出ボタンを押す。</t>
+    <t>ファイル選択、定期券指定あり</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ファイルを作成、ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日、起点駅、終点駅、交通機関と定期券金額が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>ファイルアップロード、勤怠情報登録、定期券情報登録</t>
+  </si>
+  <si>
+    <t>ファイル選択、定期券指定なし</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ファイルを作成、ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、前月の定期券情報を本月分の定期券情報として、提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>ファイルアップロード、勤怠情報登録、前月の定期券情報を本月分の定期券情報として提出。</t>
+  </si>
+  <si>
+    <t>定期券変更選択チェック</t>
+  </si>
+  <si>
+    <t>定期券変更あり選択</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日、起点駅、終点駅、交通機関と定期券金額が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>稼働月の勤怠と定期券変更を提出できます。</t>
+  </si>
+  <si>
+    <t>定期券変更あり末選択</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定期券変更あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；提出ボタンを押す。</t>
+    </r>
+  </si>
+  <si>
+    <t>稼働月の勤怠を提出できます、前月の定期券情報を本月分の定期券情報として提出。</t>
+  </si>
+  <si>
+    <t>定期券変更あり選択、ファイル末選択</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE41908"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定期券変更あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、定期券開始日、起点駅、終点駅、交通機関と定期券金額が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>稼働月の勤怠と定期券変更を提出できます。ファイルを提出できません。</t>
   </si>
   <si>
-    <t>ファイル未選択して、定期券変更なし、提出チェック</t>
-  </si>
-  <si>
-    <t>ファイル未選択して、定期券変更なし</t>
-  </si>
-  <si>
-    <t>ファイル未選択して、定期券変更なし、前月の定期券情報を本月分の定期券情報として、提出ボタンを押す。</t>
+    <t>定期券変更あり末選択、ファイル末選択</t>
+  </si>
+  <si>
+    <r>
+      <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；定期券変更ありを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、前月の定期券情報を本月分の定期券情報として、提出ボタンを押す。</t>
+    </r>
   </si>
   <si>
     <t>稼働月の勤怠を提出できます。ファイル提出できません。前月の定期券情報を本月分の定期券情報として提出。</t>
@@ -338,9 +1281,6 @@
     <t>ファイル登録する、勤怠情報登録する。</t>
   </si>
   <si>
-    <t>ファイルアップロード、勤怠情報登録、定期券情報登録</t>
-  </si>
-  <si>
     <t>ファイルアップロード、勤怠情報登録、前月の定期券情報を本月分の定期券情報として登録</t>
   </si>
   <si>
@@ -425,9 +1365,6 @@
     <t>No9</t>
   </si>
   <si>
-    <t>定期券変更あり選択</t>
-  </si>
-  <si>
     <t>正常</t>
   </si>
   <si>
@@ -435,9 +1372,6 @@
   </si>
   <si>
     <t>No10</t>
-  </si>
-  <si>
-    <t>定期券変更あり末選択</t>
   </si>
   <si>
     <t>前月の定期券情報を本月分の定期券情報として登録</t>
@@ -510,17 +1444,66 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,8 +1514,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +1532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,57 +1562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -637,9 +1578,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,30 +1621,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFE41908"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,13 +1650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +1680,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,73 +1710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +1728,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,55 +1824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,17 +1853,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,7 +1868,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,48 +1922,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,152 +1955,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,22 +2110,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1230,6 +2190,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00E41908"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1672,8 +2637,8 @@
   <sheetPr/>
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1690,63 +2655,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="2:14">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="11">
         <v>44312</v>
       </c>
       <c r="N3" t="s">
@@ -1754,568 +2719,568 @@
       </c>
     </row>
     <row r="4" ht="55.2" spans="2:11">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>44312</v>
       </c>
     </row>
     <row r="5" ht="55.2" spans="2:11">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="11">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="6" ht="41.4" spans="2:11">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="G6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="6" ht="55.2" spans="2:11">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+    <row r="7" ht="41.4" spans="2:11">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="9">
-        <v>44312</v>
-      </c>
-    </row>
-    <row r="7" ht="41.4" spans="2:11">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="8" ht="27.6" spans="2:11">
-      <c r="B8" s="5">
+    <row r="8" ht="41.4" spans="2:11">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="9" ht="41.4" spans="2:11">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="11">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="10" ht="55.2" spans="2:11">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="G10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K10" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="9" ht="27.6" spans="2:11">
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="5" t="s">
+    <row r="11" ht="55.2" spans="2:11">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K11" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="10" ht="27.6" spans="2:11">
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+    <row r="12" ht="27.6" spans="2:11">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K12" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="11" ht="27.6" spans="2:11">
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+    <row r="13" ht="55.2" spans="2:11">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K13" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="12" ht="41.4" spans="2:11">
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2" t="s">
+    <row r="14" ht="55.2" spans="2:11">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K14" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="13" ht="27.6" spans="2:11">
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
+    <row r="15" ht="41.4" spans="2:11">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="H15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K15" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="14" ht="27.6" spans="2:11">
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="2" t="s">
+    <row r="16" ht="41.4" spans="2:11">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K16" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="15" ht="27.6" spans="2:11">
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="5" t="s">
+    <row r="17" ht="55.2" spans="2:11">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K17" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="16" ht="55.2" spans="2:11">
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2" t="s">
+    <row r="18" ht="55.2" spans="2:11">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K18" s="11">
         <v>44312</v>
       </c>
     </row>
-    <row r="17" ht="41.4" spans="2:11">
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="9">
-        <v>44312</v>
-      </c>
-    </row>
-    <row r="18" ht="55.2" spans="2:11">
-      <c r="B18" s="5">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="9">
-        <v>44312</v>
-      </c>
-    </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2329,7 +3294,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2342,177 +3307,177 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" ht="41.4" spans="2:8">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="69" spans="2:8">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="69" spans="2:8">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="41.4" spans="2:8">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="55.2" spans="2:8">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" ht="41.4" spans="2:8">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" ht="69" spans="2:8">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" ht="69" spans="2:8">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" ht="41.4" spans="2:8">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" ht="55.2" spans="2:8">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2542,60 +3507,60 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="27.6" spans="2:5">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="27.6" spans="2:5">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -2603,13 +3568,13 @@
     </row>
     <row r="7" ht="27.6" spans="2:5">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
@@ -2617,13 +3582,13 @@
     </row>
     <row r="8" ht="27.6" spans="2:5">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
@@ -2631,13 +3596,13 @@
     </row>
     <row r="9" ht="27.6" spans="2:5">
       <c r="B9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -2645,41 +3610,41 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" ht="27.6" spans="2:5">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
@@ -2687,13 +3652,13 @@
     </row>
     <row r="13" ht="27.6" spans="2:5">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -2701,13 +3666,13 @@
     </row>
     <row r="14" ht="27.6" spans="2:5">
       <c r="B14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
@@ -2715,30 +3680,30 @@
     </row>
     <row r="15" ht="55.2" spans="2:5">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" ht="55.2" spans="2:5">
       <c r="B16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2763,47 +3728,47 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/勤怠情報結合テスト.xlsx
+++ b/DOC/結合テスト/勤怠情報結合テスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="17951" windowHeight="4907"/>
   </bookViews>
   <sheets>
     <sheet name="工程" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="テストデータ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A2:N30"/>
 </workbook>
 </file>
 
@@ -150,6 +151,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月が</t>
     </r>
     <r>
@@ -190,6 +198,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月が</t>
     </r>
     <r>
@@ -242,6 +257,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月と稼働開始日が</t>
     </r>
     <r>
@@ -290,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日と稼働終了日が</t>
     </r>
     <r>
@@ -338,6 +367,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -406,6 +442,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -494,6 +537,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -582,6 +632,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -670,6 +727,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -761,6 +825,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -812,6 +883,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -903,6 +981,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -977,6 +1062,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -1048,6 +1140,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -1099,6 +1198,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -1190,6 +1296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>稼働月、稼働開始日、稼働終了日と稼働時間が</t>
     </r>
     <r>
@@ -1445,8 +1558,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -1470,24 +1583,23 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,6 +1609,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,42 +1635,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1570,11 +1658,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,23 +1681,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,7 +1728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,7 +1763,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,31 +1841,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,37 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,55 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,25 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,30 +1977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1918,15 +2007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1945,8 +2025,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,145 +2071,145 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2463,7 +2576,7 @@
   <sheetPr/>
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2637,7 +2750,7 @@
   <sheetPr/>
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
